--- a/biology/Zoologie/Ulisses_Caramaschi/Ulisses_Caramaschi.xlsx
+++ b/biology/Zoologie/Ulisses_Caramaschi/Ulisses_Caramaschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulisses Caramaschi est un herpétologiste brésilien. Il travaille au Museu Nacional da Universidade Federal do Rio de Janeiro et est professeur au Departamento de Vertebrados. Il est un spécialiste des anoures néotropicaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Référence biographique et bibliographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(port) CV pro</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Quelques taxons nommé en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crossodactylus caramaschii Bastos and Pombal, 1995
 Bokermannohyla caramaschii (Napoli, 2005)
@@ -573,7 +589,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bufo scitulus
